--- a/Datos/Database by set/Set with text box/Xlsx sets/IDW Comics 2012 (PIDW).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/IDW Comics 2012 (PIDW).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,287 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arrest</t>
+          <t>('Arrest', ['{2}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature can’t attack or block, and its activated abilities can’t be activated.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{W}</t>
+          <t>('Breath of Malfegor', ['{3}{B}{R}', 'Instant', 'Breath of Malfegor deals 5 damage to each opponent.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Enchantment — Aura</t>
+          <t>('Consume Spirit', ['{X}{1}{B}', 'Sorcery', 'Spend only black mana on X.', 'Consume Spirit deals X damage to any target and you gain X life.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Enchant creature</t>
+          <t>('Electrolyze', ['{1}{U}{R}', 'Instant', 'Electrolyze deals 2 damage divided as you choose among one or two targets.', 'Draw a card.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Enchanted creature can’t attack or block, and its activated abilities can’t be activated.</t>
+          <t>('Faithless Looting', ['{R}', 'Sorcery', 'Draw two cards, then discard two cards.', 'Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Breath of Malfegor</t>
+          <t>('Feast of Blood', ['{1}{B}', 'Sorcery', 'Cast this spell only if you control two or more Vampires.', 'Destroy target creature. You gain 4 life.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{3}{B}{R}</t>
+          <t>('Standstill', ['{1}{U}', 'Enchantment', 'When a player casts a spell, sacrifice Standstill. If you do, each of that player’s opponents draws three cards.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Treasure Hunt', ['{1}{U}', 'Sorcery', 'Reveal cards from the top of your library until you reveal a nonland card, then put all cards revealed this way into your hand.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Breath of Malfegor deals 5 damage to each opponent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Consume Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{X}{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Spend only black mana on X.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Consume Spirit deals X damage to any target and you gain X life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Electrolyze</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{1}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Electrolyze deals 2 damage divided as you choose among one or two targets.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Faithless Looting</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Draw two cards, then discard two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flashback {2}{R} (You may cast this card from your graveyard for its flashback cost. Then exile it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Feast of Blood</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cast this spell only if you control two or more Vampires.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Destroy target creature. You gain 4 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Standstill</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>When a player casts a spell, sacrifice Standstill. If you do, each of that player’s opponents draws three cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Treasure Hunt</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Reveal cards from the top of your library until you reveal a nonland card, then put all cards revealed this way into your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Turnabout</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>{2}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Choose artifact, creature, or land. Tap all untapped permanents of the chosen type target player controls, or untap all tapped permanents of that type that player controls.</t>
+          <t>('Turnabout', ['{2}{U}{U}', 'Instant', 'Choose artifact, creature, or land. Tap all untapped permanents of the chosen type target player controls, or untap all tapped permanents of that type that player controls.'])</t>
         </is>
       </c>
     </row>
